--- a/state_results/Rivers/MangatainokaatusPahiatuaSTP_caf0f41afe.xlsx
+++ b/state_results/Rivers/MangatainokaatusPahiatuaSTP_caf0f41afe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U218"/>
+  <dimension ref="A1:U238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,10 +570,10 @@
         <v>1.9</v>
       </c>
       <c r="G2" t="n">
-        <v>2.29212472806425</v>
+        <v>2.0763590418162</v>
       </c>
       <c r="H2" t="n">
-        <v>13.7101160261203</v>
+        <v>6.58984837993457</v>
       </c>
       <c r="I2" t="n">
         <v>5.571</v>
@@ -651,7 +651,7 @@
         <v>0.007</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0200033763381722</v>
+        <v>0.0200153713655926</v>
       </c>
       <c r="H3" t="n">
         <v>0.146</v>
@@ -732,7 +732,7 @@
         <v>0.007</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0200033763381722</v>
+        <v>0.0200153713655926</v>
       </c>
       <c r="H4" t="n">
         <v>0.146</v>
@@ -1153,7 +1153,7 @@
         <v>0.00465</v>
       </c>
       <c r="G9" t="n">
-        <v>0.008079580962893299</v>
+        <v>0.0080582776580219</v>
       </c>
       <c r="H9" t="n">
         <v>0.0485995225537694</v>
@@ -1167,7 +1167,7 @@
         <v>0.00474</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01493</v>
+        <v>0.01444</v>
       </c>
       <c r="N9" t="n">
         <v>0.02259</v>
@@ -1234,7 +1234,7 @@
         <v>0.00465</v>
       </c>
       <c r="G10" t="n">
-        <v>0.008079580962893299</v>
+        <v>0.0080582776580219</v>
       </c>
       <c r="H10" t="n">
         <v>0.0485995225537694</v>
@@ -1248,7 +1248,7 @@
         <v>0.00474</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01493</v>
+        <v>0.01444</v>
       </c>
       <c r="N10" t="n">
         <v>0.02259</v>
@@ -1470,10 +1470,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.912</v>
+        <v>0.9117499999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>0.93858</v>
+        <v>0.938578</v>
       </c>
       <c r="H13" t="n">
         <v>1.743</v>
@@ -1547,10 +1547,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.912</v>
+        <v>0.9117499999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>0.93858</v>
+        <v>0.938578</v>
       </c>
       <c r="H14" t="n">
         <v>1.743</v>
@@ -2020,10 +2020,10 @@
         <v>2.05</v>
       </c>
       <c r="G20" t="n">
-        <v>2.43000322294779</v>
+        <v>2.23221801055374</v>
       </c>
       <c r="H20" t="n">
-        <v>13.7101160261203</v>
+        <v>6.58984837993457</v>
       </c>
       <c r="I20" t="n">
         <v>5.382</v>
@@ -2101,7 +2101,7 @@
         <v>0.008</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0200623650026731</v>
+        <v>0.0200654998426424</v>
       </c>
       <c r="H21" t="n">
         <v>0.146</v>
@@ -2182,7 +2182,7 @@
         <v>0.008</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0200623650026731</v>
+        <v>0.0200654998426424</v>
       </c>
       <c r="H22" t="n">
         <v>0.146</v>
@@ -2603,7 +2603,7 @@
         <v>0.00518</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0086249380008343</v>
+        <v>0.008606677318664199</v>
       </c>
       <c r="H27" t="n">
         <v>0.0485995225537694</v>
@@ -2684,7 +2684,7 @@
         <v>0.00518</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0086249380008343</v>
+        <v>0.008606677318664199</v>
       </c>
       <c r="H28" t="n">
         <v>0.0485995225537694</v>
@@ -2923,7 +2923,7 @@
         <v>0.898</v>
       </c>
       <c r="G31" t="n">
-        <v>0.88743137254902</v>
+        <v>0.887443137254902</v>
       </c>
       <c r="H31" t="n">
         <v>1.743</v>
@@ -3000,7 +3000,7 @@
         <v>0.898</v>
       </c>
       <c r="G32" t="n">
-        <v>0.88743137254902</v>
+        <v>0.887443137254902</v>
       </c>
       <c r="H32" t="n">
         <v>1.743</v>
@@ -3470,13 +3470,13 @@
         <v>2.3</v>
       </c>
       <c r="G38" t="n">
-        <v>2.79362939935647</v>
+        <v>2.40128412063243</v>
       </c>
       <c r="H38" t="n">
-        <v>13.7101160261203</v>
+        <v>6.58984837993457</v>
       </c>
       <c r="I38" t="n">
-        <v>8.048959999999999</v>
+        <v>5.067</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -3484,10 +3484,10 @@
         <v>2.7</v>
       </c>
       <c r="M38" t="n">
-        <v>3.4445</v>
+        <v>3.1</v>
       </c>
       <c r="N38" t="n">
-        <v>4.7772</v>
+        <v>4.071</v>
       </c>
       <c r="O38" t="n">
         <v>1840895</v>
@@ -3551,7 +3551,7 @@
         <v>0.007</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0144312804316047</v>
+        <v>0.0144327129932761</v>
       </c>
       <c r="H39" t="n">
         <v>0.146</v>
@@ -3632,7 +3632,7 @@
         <v>0.007</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0144312804316047</v>
+        <v>0.0144327129932761</v>
       </c>
       <c r="H40" t="n">
         <v>0.146</v>
@@ -4053,7 +4053,7 @@
         <v>0.00491</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0087023305701631</v>
+        <v>0.0086881725021413</v>
       </c>
       <c r="H45" t="n">
         <v>0.0485995225537694</v>
@@ -4134,7 +4134,7 @@
         <v>0.00491</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0087023305701631</v>
+        <v>0.0086881725021413</v>
       </c>
       <c r="H46" t="n">
         <v>0.0485995225537694</v>
@@ -4370,24 +4370,24 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.8365</v>
+        <v>0.83635</v>
       </c>
       <c r="G49" t="n">
-        <v>0.849910714285714</v>
+        <v>0.849921428571429</v>
       </c>
       <c r="H49" t="n">
         <v>1.743</v>
       </c>
       <c r="I49" t="n">
-        <v>1.493</v>
+        <v>1.49307</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>0.6115</v>
+        <v>0.6117</v>
       </c>
       <c r="M49" t="n">
-        <v>1.13376</v>
+        <v>1.13347</v>
       </c>
       <c r="N49" t="n">
         <v>1.45044</v>
@@ -4447,24 +4447,24 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.8365</v>
+        <v>0.83635</v>
       </c>
       <c r="G50" t="n">
-        <v>0.849910714285714</v>
+        <v>0.849921428571429</v>
       </c>
       <c r="H50" t="n">
         <v>1.743</v>
       </c>
       <c r="I50" t="n">
-        <v>1.493</v>
+        <v>1.49307</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>0.6115</v>
+        <v>0.6117</v>
       </c>
       <c r="M50" t="n">
-        <v>1.13376</v>
+        <v>1.13347</v>
       </c>
       <c r="N50" t="n">
         <v>1.45044</v>
@@ -4920,13 +4920,13 @@
         <v>2.675</v>
       </c>
       <c r="G56" t="n">
-        <v>2.70621816631353</v>
+        <v>2.50174439400377</v>
       </c>
       <c r="H56" t="n">
-        <v>10.8465752497757</v>
+        <v>5.4</v>
       </c>
       <c r="I56" t="n">
-        <v>5.246</v>
+        <v>4.914</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -4934,10 +4934,10 @@
         <v>2.89</v>
       </c>
       <c r="M56" t="n">
-        <v>3.953</v>
+        <v>3.505</v>
       </c>
       <c r="N56" t="n">
-        <v>4.794</v>
+        <v>4.492</v>
       </c>
       <c r="O56" t="n">
         <v>1840895</v>
@@ -5001,7 +5001,7 @@
         <v>0.007</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0135310508510686</v>
+        <v>0.0135324643913407</v>
       </c>
       <c r="H57" t="n">
         <v>0.146</v>
@@ -5082,7 +5082,7 @@
         <v>0.007</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0135310508510686</v>
+        <v>0.0135324643913407</v>
       </c>
       <c r="H58" t="n">
         <v>0.146</v>
@@ -5503,7 +5503,7 @@
         <v>0.00408</v>
       </c>
       <c r="G63" t="n">
-        <v>0.008132046941232301</v>
+        <v>0.008125448381478001</v>
       </c>
       <c r="H63" t="n">
         <v>0.0485995225537694</v>
@@ -5514,7 +5514,7 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>0.0039</v>
+        <v>0.00391</v>
       </c>
       <c r="M63" t="n">
         <v>0.01548</v>
@@ -5584,7 +5584,7 @@
         <v>0.00408</v>
       </c>
       <c r="G64" t="n">
-        <v>0.008132046941232301</v>
+        <v>0.008125448381478001</v>
       </c>
       <c r="H64" t="n">
         <v>0.0485995225537694</v>
@@ -5595,7 +5595,7 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0.0039</v>
+        <v>0.00391</v>
       </c>
       <c r="M64" t="n">
         <v>0.01548</v>
@@ -5823,13 +5823,13 @@
         <v>0.872</v>
       </c>
       <c r="G67" t="n">
-        <v>0.8831052631578949</v>
+        <v>0.88310350877193</v>
       </c>
       <c r="H67" t="n">
         <v>1.743</v>
       </c>
       <c r="I67" t="n">
-        <v>1.6034</v>
+        <v>1.60337</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -5837,7 +5837,7 @@
         <v>0.6304999999999999</v>
       </c>
       <c r="M67" t="n">
-        <v>1.19227</v>
+        <v>1.19221</v>
       </c>
       <c r="N67" t="n">
         <v>1.44916</v>
@@ -5900,13 +5900,13 @@
         <v>0.872</v>
       </c>
       <c r="G68" t="n">
-        <v>0.8831052631578949</v>
+        <v>0.88310350877193</v>
       </c>
       <c r="H68" t="n">
         <v>1.743</v>
       </c>
       <c r="I68" t="n">
-        <v>1.6034</v>
+        <v>1.60337</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -5914,7 +5914,7 @@
         <v>0.6304999999999999</v>
       </c>
       <c r="M68" t="n">
-        <v>1.19227</v>
+        <v>1.19221</v>
       </c>
       <c r="N68" t="n">
         <v>1.44916</v>
@@ -6447,13 +6447,13 @@
         <v>2.845</v>
       </c>
       <c r="G75" t="n">
-        <v>3.03141256202106</v>
+        <v>2.87163586343553</v>
       </c>
       <c r="H75" t="n">
-        <v>10.8465752497757</v>
+        <v>6.4</v>
       </c>
       <c r="I75" t="n">
-        <v>6.26485</v>
+        <v>6.03793</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -6461,10 +6461,10 @@
         <v>3</v>
       </c>
       <c r="M75" t="n">
-        <v>4.596</v>
+        <v>4.4864</v>
       </c>
       <c r="N75" t="n">
-        <v>5.45836</v>
+        <v>5.2196</v>
       </c>
       <c r="O75" t="n">
         <v>1840895</v>
@@ -6528,7 +6528,7 @@
         <v>0.007</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0101750114515434</v>
+        <v>0.0101791845536907</v>
       </c>
       <c r="H76" t="n">
         <v>0.07199999999999999</v>
@@ -6609,7 +6609,7 @@
         <v>0.007</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0101750114515434</v>
+        <v>0.0101791845536907</v>
       </c>
       <c r="H77" t="n">
         <v>0.07199999999999999</v>
@@ -7104,10 +7104,10 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.00219</v>
+        <v>0.00214</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0065467224879176</v>
+        <v>0.0065298050114336</v>
       </c>
       <c r="H83" t="n">
         <v>0.0485995225537694</v>
@@ -7118,7 +7118,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>0.0016</v>
+        <v>0.00152</v>
       </c>
       <c r="M83" t="n">
         <v>0.01367</v>
@@ -7185,10 +7185,10 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.00219</v>
+        <v>0.00214</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0065467224879176</v>
+        <v>0.0065298050114336</v>
       </c>
       <c r="H84" t="n">
         <v>0.0485995225537694</v>
@@ -7199,7 +7199,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
-        <v>0.0016</v>
+        <v>0.00152</v>
       </c>
       <c r="M84" t="n">
         <v>0.01367</v>
@@ -7504,24 +7504,24 @@
         <v>0.885</v>
       </c>
       <c r="G88" t="n">
-        <v>0.895051724137931</v>
+        <v>0.89505</v>
       </c>
       <c r="H88" t="n">
         <v>1.685</v>
       </c>
       <c r="I88" t="n">
-        <v>1.5956</v>
+        <v>1.59558</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
-        <v>0.596</v>
+        <v>0.5962</v>
       </c>
       <c r="M88" t="n">
         <v>1.1978</v>
       </c>
       <c r="N88" t="n">
-        <v>1.43108</v>
+        <v>1.43109</v>
       </c>
       <c r="O88" t="n">
         <v>1840895</v>
@@ -7581,24 +7581,24 @@
         <v>0.885</v>
       </c>
       <c r="G89" t="n">
-        <v>0.895051724137931</v>
+        <v>0.89505</v>
       </c>
       <c r="H89" t="n">
         <v>1.685</v>
       </c>
       <c r="I89" t="n">
-        <v>1.5956</v>
+        <v>1.59558</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
-        <v>0.596</v>
+        <v>0.5962</v>
       </c>
       <c r="M89" t="n">
         <v>1.1978</v>
       </c>
       <c r="N89" t="n">
-        <v>1.43108</v>
+        <v>1.43109</v>
       </c>
       <c r="O89" t="n">
         <v>1840895</v>
@@ -8128,13 +8128,13 @@
         <v>2.89</v>
       </c>
       <c r="G96" t="n">
-        <v>3.04317197511489</v>
+        <v>2.85366840511069</v>
       </c>
       <c r="H96" t="n">
-        <v>10.8465752497757</v>
+        <v>6.4</v>
       </c>
       <c r="I96" t="n">
-        <v>6.23106</v>
+        <v>5.99806</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -8142,10 +8142,10 @@
         <v>3.05</v>
       </c>
       <c r="M96" t="n">
-        <v>4.8</v>
+        <v>4.483</v>
       </c>
       <c r="N96" t="n">
-        <v>5.43242</v>
+        <v>5.202</v>
       </c>
       <c r="O96" t="n">
         <v>1840895</v>
@@ -8209,7 +8209,7 @@
         <v>0.006</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0080626072657684</v>
+        <v>0.0080679844849717</v>
       </c>
       <c r="H97" t="n">
         <v>0.047</v>
@@ -8290,7 +8290,7 @@
         <v>0.006</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0080626072657684</v>
+        <v>0.0080679844849717</v>
       </c>
       <c r="H98" t="n">
         <v>0.047</v>
@@ -8785,10 +8785,10 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.00152</v>
+        <v>0.00146</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0042086924516657</v>
+        <v>0.0041814071875092</v>
       </c>
       <c r="H104" t="n">
         <v>0.032725755088978</v>
@@ -8799,7 +8799,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
-        <v>0.00135</v>
+        <v>0.00129</v>
       </c>
       <c r="M104" t="n">
         <v>0.01001</v>
@@ -8866,10 +8866,10 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.00152</v>
+        <v>0.00146</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0042086924516657</v>
+        <v>0.0041814071875092</v>
       </c>
       <c r="H105" t="n">
         <v>0.032725755088978</v>
@@ -8880,7 +8880,7 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
-        <v>0.00135</v>
+        <v>0.00129</v>
       </c>
       <c r="M105" t="n">
         <v>0.01001</v>
@@ -9182,24 +9182,24 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0.902</v>
+        <v>0.9021</v>
       </c>
       <c r="G109" t="n">
-        <v>0.89715</v>
+        <v>0.897148333333333</v>
       </c>
       <c r="H109" t="n">
         <v>1.685</v>
       </c>
       <c r="I109" t="n">
-        <v>1.5535</v>
+        <v>1.55355</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
-        <v>0.5335</v>
+        <v>0.53355</v>
       </c>
       <c r="M109" t="n">
-        <v>1.2932</v>
+        <v>1.29308</v>
       </c>
       <c r="N109" t="n">
         <v>1.435</v>
@@ -9259,24 +9259,24 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0.902</v>
+        <v>0.9021</v>
       </c>
       <c r="G110" t="n">
-        <v>0.89715</v>
+        <v>0.897148333333333</v>
       </c>
       <c r="H110" t="n">
         <v>1.685</v>
       </c>
       <c r="I110" t="n">
-        <v>1.5535</v>
+        <v>1.55355</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
-        <v>0.5335</v>
+        <v>0.53355</v>
       </c>
       <c r="M110" t="n">
-        <v>1.2932</v>
+        <v>1.29308</v>
       </c>
       <c r="N110" t="n">
         <v>1.435</v>
@@ -9806,16 +9806,16 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2.95</v>
+        <v>2.91121</v>
       </c>
       <c r="G117" t="n">
-        <v>2.92440320565207</v>
+        <v>2.73009232470672</v>
       </c>
       <c r="H117" t="n">
-        <v>10.8465752497757</v>
+        <v>6.4</v>
       </c>
       <c r="I117" t="n">
-        <v>6.26485</v>
+        <v>6.03793</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -9823,10 +9823,10 @@
         <v>3.2</v>
       </c>
       <c r="M117" t="n">
-        <v>4.8</v>
+        <v>4.4864</v>
       </c>
       <c r="N117" t="n">
-        <v>5.45836</v>
+        <v>5.2196</v>
       </c>
       <c r="O117" t="n">
         <v>1840895</v>
@@ -9890,7 +9890,7 @@
         <v>0.006</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0079535777447928</v>
+        <v>0.0079629501214852</v>
       </c>
       <c r="H118" t="n">
         <v>0.047</v>
@@ -9971,7 +9971,7 @@
         <v>0.006</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0079535777447928</v>
+        <v>0.0079629501214852</v>
       </c>
       <c r="H119" t="n">
         <v>0.047</v>
@@ -10466,10 +10466,10 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0.0018</v>
+        <v>0.00178</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0041011664068885</v>
+        <v>0.0040592352678372</v>
       </c>
       <c r="H125" t="n">
         <v>0.032725755088978</v>
@@ -10480,10 +10480,10 @@
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
-        <v>0.00193</v>
+        <v>0.00184</v>
       </c>
       <c r="M125" t="n">
-        <v>0.00603</v>
+        <v>0.00601</v>
       </c>
       <c r="N125" t="n">
         <v>0.01458</v>
@@ -10547,10 +10547,10 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.0018</v>
+        <v>0.00178</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0041011664068885</v>
+        <v>0.0040592352678372</v>
       </c>
       <c r="H126" t="n">
         <v>0.032725755088978</v>
@@ -10561,10 +10561,10 @@
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
-        <v>0.00193</v>
+        <v>0.00184</v>
       </c>
       <c r="M126" t="n">
-        <v>0.00603</v>
+        <v>0.00601</v>
       </c>
       <c r="N126" t="n">
         <v>0.01458</v>
@@ -10863,24 +10863,24 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0.903</v>
+        <v>0.9031</v>
       </c>
       <c r="G130" t="n">
-        <v>0.886266666666667</v>
+        <v>0.886263333333333</v>
       </c>
       <c r="H130" t="n">
         <v>1.685</v>
       </c>
       <c r="I130" t="n">
-        <v>1.5535</v>
+        <v>1.55355</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
-        <v>0.531</v>
+        <v>0.53105</v>
       </c>
       <c r="M130" t="n">
-        <v>1.2932</v>
+        <v>1.29308</v>
       </c>
       <c r="N130" t="n">
         <v>1.435</v>
@@ -10940,24 +10940,24 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0.903</v>
+        <v>0.9031</v>
       </c>
       <c r="G131" t="n">
-        <v>0.886266666666667</v>
+        <v>0.886263333333333</v>
       </c>
       <c r="H131" t="n">
         <v>1.685</v>
       </c>
       <c r="I131" t="n">
-        <v>1.5535</v>
+        <v>1.55355</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
-        <v>0.531</v>
+        <v>0.53105</v>
       </c>
       <c r="M131" t="n">
-        <v>1.2932</v>
+        <v>1.29308</v>
       </c>
       <c r="N131" t="n">
         <v>1.435</v>
@@ -11490,13 +11490,13 @@
         <v>3</v>
       </c>
       <c r="G138" t="n">
-        <v>2.77213889721014</v>
+        <v>2.7421997052582</v>
       </c>
       <c r="H138" t="n">
-        <v>6.92577791823402</v>
+        <v>6.4</v>
       </c>
       <c r="I138" t="n">
-        <v>5.70802</v>
+        <v>6.15754</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -11504,7 +11504,7 @@
         <v>3.36</v>
       </c>
       <c r="M138" t="n">
-        <v>4.766</v>
+        <v>4.583</v>
       </c>
       <c r="N138" t="n">
         <v>5.2724</v>
@@ -11571,7 +11571,7 @@
         <v>0.006</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0076168667793517</v>
+        <v>0.0076329486993766</v>
       </c>
       <c r="H139" t="n">
         <v>0.047</v>
@@ -11652,7 +11652,7 @@
         <v>0.006</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0076168667793517</v>
+        <v>0.0076329486993766</v>
       </c>
       <c r="H140" t="n">
         <v>0.047</v>
@@ -12147,13 +12147,13 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0.00225</v>
+        <v>0.00221</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0039294706044772</v>
+        <v>0.0038520058677823</v>
       </c>
       <c r="H146" t="n">
-        <v>0.0228616543579167</v>
+        <v>0.0220524737602516</v>
       </c>
       <c r="I146" t="n">
         <v>0.01563</v>
@@ -12161,10 +12161,10 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
-        <v>0.0025</v>
+        <v>0.0024</v>
       </c>
       <c r="M146" t="n">
-        <v>0.00616</v>
+        <v>0.00614</v>
       </c>
       <c r="N146" t="n">
         <v>0.01053</v>
@@ -12228,13 +12228,13 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0.00225</v>
+        <v>0.00221</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0039294706044772</v>
+        <v>0.0038520058677823</v>
       </c>
       <c r="H147" t="n">
-        <v>0.0228616543579167</v>
+        <v>0.0220524737602516</v>
       </c>
       <c r="I147" t="n">
         <v>0.01563</v>
@@ -12242,10 +12242,10 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
-        <v>0.0025</v>
+        <v>0.0024</v>
       </c>
       <c r="M147" t="n">
-        <v>0.00616</v>
+        <v>0.00614</v>
       </c>
       <c r="N147" t="n">
         <v>0.01053</v>
@@ -12547,7 +12547,7 @@
         <v>0.9</v>
       </c>
       <c r="G151" t="n">
-        <v>0.880050847457627</v>
+        <v>0.880038983050847</v>
       </c>
       <c r="H151" t="n">
         <v>1.685</v>
@@ -12561,7 +12561,7 @@
         <v>0.59</v>
       </c>
       <c r="M151" t="n">
-        <v>1.30068</v>
+        <v>1.30049</v>
       </c>
       <c r="N151" t="n">
         <v>1.4306</v>
@@ -12624,7 +12624,7 @@
         <v>0.9</v>
       </c>
       <c r="G152" t="n">
-        <v>0.880050847457627</v>
+        <v>0.880038983050847</v>
       </c>
       <c r="H152" t="n">
         <v>1.685</v>
@@ -12638,7 +12638,7 @@
         <v>0.59</v>
       </c>
       <c r="M152" t="n">
-        <v>1.30068</v>
+        <v>1.30049</v>
       </c>
       <c r="N152" t="n">
         <v>1.4306</v>
@@ -13171,13 +13171,13 @@
         <v>2.56</v>
       </c>
       <c r="G159" t="n">
-        <v>2.52967846017248</v>
+        <v>2.49488912088365</v>
       </c>
       <c r="H159" t="n">
-        <v>6.92577791823402</v>
+        <v>6.4</v>
       </c>
       <c r="I159" t="n">
-        <v>5.96075</v>
+        <v>6.21217</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -13185,10 +13185,10 @@
         <v>3</v>
       </c>
       <c r="M159" t="n">
-        <v>4.5028</v>
+        <v>4.3666</v>
       </c>
       <c r="N159" t="n">
-        <v>5.12893</v>
+        <v>4.94688</v>
       </c>
       <c r="O159" t="n">
         <v>1840895</v>
@@ -13252,7 +13252,7 @@
         <v>0.006</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0071745731288076</v>
+        <v>0.0071895431544275</v>
       </c>
       <c r="H160" t="n">
         <v>0.047</v>
@@ -13263,7 +13263,7 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
-        <v>0.00372</v>
+        <v>0.00376</v>
       </c>
       <c r="M160" t="n">
         <v>0.00864</v>
@@ -13333,7 +13333,7 @@
         <v>0.006</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0071745731288076</v>
+        <v>0.0071895431544275</v>
       </c>
       <c r="H161" t="n">
         <v>0.047</v>
@@ -13344,7 +13344,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
-        <v>0.00372</v>
+        <v>0.00376</v>
       </c>
       <c r="M161" t="n">
         <v>0.00864</v>
@@ -13828,13 +13828,13 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0.00306</v>
+        <v>0.00295</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0042148140276541</v>
+        <v>0.0041373989664151</v>
       </c>
       <c r="H167" t="n">
-        <v>0.0228616543579167</v>
+        <v>0.0220524737602516</v>
       </c>
       <c r="I167" t="n">
         <v>0.015</v>
@@ -13842,10 +13842,10 @@
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
-        <v>0.00336</v>
+        <v>0.00322</v>
       </c>
       <c r="M167" t="n">
-        <v>0.00646</v>
+        <v>0.00644</v>
       </c>
       <c r="N167" t="n">
         <v>0.009809999999999999</v>
@@ -13909,13 +13909,13 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0.00306</v>
+        <v>0.00295</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0042148140276541</v>
+        <v>0.0041373989664151</v>
       </c>
       <c r="H168" t="n">
-        <v>0.0228616543579167</v>
+        <v>0.0220524737602516</v>
       </c>
       <c r="I168" t="n">
         <v>0.015</v>
@@ -13923,10 +13923,10 @@
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
-        <v>0.00336</v>
+        <v>0.00322</v>
       </c>
       <c r="M168" t="n">
-        <v>0.00646</v>
+        <v>0.00644</v>
       </c>
       <c r="N168" t="n">
         <v>0.009809999999999999</v>
@@ -14228,7 +14228,7 @@
         <v>0.788</v>
       </c>
       <c r="G172" t="n">
-        <v>0.834793103448276</v>
+        <v>0.834810344827586</v>
       </c>
       <c r="H172" t="n">
         <v>1.685</v>
@@ -14305,7 +14305,7 @@
         <v>0.788</v>
       </c>
       <c r="G173" t="n">
-        <v>0.834793103448276</v>
+        <v>0.834810344827586</v>
       </c>
       <c r="H173" t="n">
         <v>1.685</v>
@@ -14852,24 +14852,24 @@
         <v>1.7</v>
       </c>
       <c r="G180" t="n">
-        <v>1.95001546112734</v>
+        <v>1.89173902839514</v>
       </c>
       <c r="H180" t="n">
-        <v>5.08818028218197</v>
+        <v>4.6</v>
       </c>
       <c r="I180" t="n">
-        <v>4.574</v>
+        <v>4.3284</v>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
-        <v>2.57966</v>
+        <v>2.54461</v>
       </c>
       <c r="M180" t="n">
-        <v>4</v>
+        <v>3.6616</v>
       </c>
       <c r="N180" t="n">
-        <v>4.33304</v>
+        <v>4.21056</v>
       </c>
       <c r="O180" t="n">
         <v>1840895</v>
@@ -14933,7 +14933,7 @@
         <v>0.005</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0056249047550385</v>
+        <v>0.0056370908473993</v>
       </c>
       <c r="H181" t="n">
         <v>0.018</v>
@@ -14944,7 +14944,7 @@
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
-        <v>0.00372</v>
+        <v>0.00376</v>
       </c>
       <c r="M181" t="n">
         <v>0.008</v>
@@ -15014,7 +15014,7 @@
         <v>0.005</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0056249047550385</v>
+        <v>0.0056370908473993</v>
       </c>
       <c r="H182" t="n">
         <v>0.018</v>
@@ -15025,7 +15025,7 @@
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
-        <v>0.00372</v>
+        <v>0.00376</v>
       </c>
       <c r="M182" t="n">
         <v>0.008</v>
@@ -15509,13 +15509,13 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0.00306</v>
+        <v>0.00295</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0042876877062437</v>
+        <v>0.0042220237156685</v>
       </c>
       <c r="H188" t="n">
-        <v>0.0228616543579167</v>
+        <v>0.0220524737602516</v>
       </c>
       <c r="I188" t="n">
         <v>0.01477</v>
@@ -15523,10 +15523,10 @@
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
-        <v>0.00388</v>
+        <v>0.00374</v>
       </c>
       <c r="M188" t="n">
-        <v>0.00663</v>
+        <v>0.00653</v>
       </c>
       <c r="N188" t="n">
         <v>0.008500000000000001</v>
@@ -15590,13 +15590,13 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0.00306</v>
+        <v>0.00295</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0042876877062437</v>
+        <v>0.0042220237156685</v>
       </c>
       <c r="H189" t="n">
-        <v>0.0228616543579167</v>
+        <v>0.0220524737602516</v>
       </c>
       <c r="I189" t="n">
         <v>0.01477</v>
@@ -15604,10 +15604,10 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
-        <v>0.00388</v>
+        <v>0.00374</v>
       </c>
       <c r="M189" t="n">
-        <v>0.00663</v>
+        <v>0.00653</v>
       </c>
       <c r="N189" t="n">
         <v>0.008500000000000001</v>
@@ -15909,7 +15909,7 @@
         <v>0.764</v>
       </c>
       <c r="G193" t="n">
-        <v>0.797706896551724</v>
+        <v>0.797715517241379</v>
       </c>
       <c r="H193" t="n">
         <v>1.605</v>
@@ -15986,7 +15986,7 @@
         <v>0.764</v>
       </c>
       <c r="G194" t="n">
-        <v>0.797706896551724</v>
+        <v>0.797715517241379</v>
       </c>
       <c r="H194" t="n">
         <v>1.605</v>
@@ -16533,7 +16533,7 @@
         <v>0.0055</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0059420466213042</v>
+        <v>0.0059528431752571</v>
       </c>
       <c r="H201" t="n">
         <v>0.017</v>
@@ -16614,7 +16614,7 @@
         <v>0.0055</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0059420466213042</v>
+        <v>0.0059528431752571</v>
       </c>
       <c r="H202" t="n">
         <v>0.017</v>
@@ -17109,13 +17109,13 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>0.00343</v>
+        <v>0.00333</v>
       </c>
       <c r="G208" t="n">
-        <v>0.0047839173641067</v>
+        <v>0.0047306282360839</v>
       </c>
       <c r="H208" t="n">
-        <v>0.0228616543579167</v>
+        <v>0.0220524737602516</v>
       </c>
       <c r="I208" t="n">
         <v>0.01497</v>
@@ -17123,7 +17123,7 @@
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
-        <v>0.00454</v>
+        <v>0.00447</v>
       </c>
       <c r="M208" t="n">
         <v>0.00686</v>
@@ -17190,13 +17190,13 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0.00343</v>
+        <v>0.00333</v>
       </c>
       <c r="G209" t="n">
-        <v>0.0047839173641067</v>
+        <v>0.0047306282360839</v>
       </c>
       <c r="H209" t="n">
-        <v>0.0228616543579167</v>
+        <v>0.0220524737602516</v>
       </c>
       <c r="I209" t="n">
         <v>0.01497</v>
@@ -17204,7 +17204,7 @@
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
-        <v>0.00454</v>
+        <v>0.00447</v>
       </c>
       <c r="M209" t="n">
         <v>0.00686</v>
@@ -17506,10 +17506,10 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.81725</v>
       </c>
       <c r="G213" t="n">
-        <v>0.844241379310345</v>
+        <v>0.8442499999999999</v>
       </c>
       <c r="H213" t="n">
         <v>1.64</v>
@@ -17523,7 +17523,7 @@
         <v>0.713</v>
       </c>
       <c r="M213" t="n">
-        <v>1.197</v>
+        <v>1.19682</v>
       </c>
       <c r="N213" t="n">
         <v>1.39112</v>
@@ -17583,10 +17583,10 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.81725</v>
       </c>
       <c r="G214" t="n">
-        <v>0.844241379310345</v>
+        <v>0.8442499999999999</v>
       </c>
       <c r="H214" t="n">
         <v>1.64</v>
@@ -17600,7 +17600,7 @@
         <v>0.713</v>
       </c>
       <c r="M214" t="n">
-        <v>1.197</v>
+        <v>1.19682</v>
       </c>
       <c r="N214" t="n">
         <v>1.39112</v>
@@ -17945,6 +17945,1606 @@
         </is>
       </c>
     </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0.4625</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O219" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="P219" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>55</v>
+      </c>
+      <c r="G220" t="n">
+        <v>59.0246153846154</v>
+      </c>
+      <c r="H220" t="n">
+        <v>190</v>
+      </c>
+      <c r="I220" t="n">
+        <v>163.75</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>55</v>
+      </c>
+      <c r="M220" t="n">
+        <v>85</v>
+      </c>
+      <c r="N220" t="n">
+        <v>125.2</v>
+      </c>
+      <c r="O220" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="P220" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>0.0055</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.0060097752754156</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0.0136</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O221" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="P221" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>0.0055</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.0060097752754156</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0.0136</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O222" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="P222" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>219</v>
+      </c>
+      <c r="G223" t="n">
+        <v>482.948275862069</v>
+      </c>
+      <c r="H223" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I223" t="n">
+        <v>2397</v>
+      </c>
+      <c r="J223" t="n">
+        <v>25.8620689655172</v>
+      </c>
+      <c r="K223" t="n">
+        <v>37.9310344827586</v>
+      </c>
+      <c r="L223" t="n">
+        <v>280.5</v>
+      </c>
+      <c r="M223" t="n">
+        <v>740</v>
+      </c>
+      <c r="N223" t="n">
+        <v>1723.28</v>
+      </c>
+      <c r="O223" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="P223" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>219</v>
+      </c>
+      <c r="G224" t="n">
+        <v>482.948275862069</v>
+      </c>
+      <c r="H224" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I224" t="n">
+        <v>2397</v>
+      </c>
+      <c r="J224" t="n">
+        <v>25.8620689655172</v>
+      </c>
+      <c r="K224" t="n">
+        <v>37.9310344827586</v>
+      </c>
+      <c r="L224" t="n">
+        <v>280.5</v>
+      </c>
+      <c r="M224" t="n">
+        <v>740</v>
+      </c>
+      <c r="N224" t="n">
+        <v>1723.28</v>
+      </c>
+      <c r="O224" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="P224" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>219</v>
+      </c>
+      <c r="G225" t="n">
+        <v>482.948275862069</v>
+      </c>
+      <c r="H225" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I225" t="n">
+        <v>2397</v>
+      </c>
+      <c r="J225" t="n">
+        <v>25.8620689655172</v>
+      </c>
+      <c r="K225" t="n">
+        <v>37.9310344827586</v>
+      </c>
+      <c r="L225" t="n">
+        <v>280.5</v>
+      </c>
+      <c r="M225" t="n">
+        <v>740</v>
+      </c>
+      <c r="N225" t="n">
+        <v>1723.28</v>
+      </c>
+      <c r="O225" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="P225" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>219</v>
+      </c>
+      <c r="G226" t="n">
+        <v>482.948275862069</v>
+      </c>
+      <c r="H226" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I226" t="n">
+        <v>2397</v>
+      </c>
+      <c r="J226" t="n">
+        <v>25.8620689655172</v>
+      </c>
+      <c r="K226" t="n">
+        <v>37.9310344827586</v>
+      </c>
+      <c r="L226" t="n">
+        <v>280.5</v>
+      </c>
+      <c r="M226" t="n">
+        <v>740</v>
+      </c>
+      <c r="N226" t="n">
+        <v>1723.28</v>
+      </c>
+      <c r="O226" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="P226" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>93.68000000000001</v>
+      </c>
+      <c r="G227" t="n">
+        <v>94.55</v>
+      </c>
+      <c r="H227" t="n">
+        <v>101</v>
+      </c>
+      <c r="I227" t="n">
+        <v>101</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>93.68000000000001</v>
+      </c>
+      <c r="M227" t="n">
+        <v>98.5745</v>
+      </c>
+      <c r="N227" t="n">
+        <v>101</v>
+      </c>
+      <c r="O227" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="P227" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>0.00357</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.0053871949165946</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0.0220524737602516</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0.01853</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>0.00523</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0.009379999999999999</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0.01377</v>
+      </c>
+      <c r="O228" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="P228" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>0.00357</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.0053871949165946</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0.0220524737602516</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0.01853</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>0.00523</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0.009379999999999999</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0.01377</v>
+      </c>
+      <c r="O229" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="P229" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>0.7905</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.8454482758620691</v>
+      </c>
+      <c r="H230" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1.422</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="M230" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N230" t="n">
+        <v>1.383</v>
+      </c>
+      <c r="O230" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="P230" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>0.7905</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0.8454482758620691</v>
+      </c>
+      <c r="H231" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I231" t="n">
+        <v>1.422</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="M231" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N231" t="n">
+        <v>1.383</v>
+      </c>
+      <c r="O231" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="P231" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T231" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>4.484</v>
+      </c>
+      <c r="G232" t="n">
+        <v>4.7016</v>
+      </c>
+      <c r="H232" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="I232" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>4.484</v>
+      </c>
+      <c r="M232" t="n">
+        <v>5.2465</v>
+      </c>
+      <c r="N232" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="O232" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="P232" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.858068965517241</v>
+      </c>
+      <c r="H233" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I233" t="n">
+        <v>1.4252</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="M233" t="n">
+        <v>1.19916</v>
+      </c>
+      <c r="N233" t="n">
+        <v>1.39112</v>
+      </c>
+      <c r="O233" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="P233" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T233" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0.858068965517241</v>
+      </c>
+      <c r="H234" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1.4252</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="M234" t="n">
+        <v>1.19916</v>
+      </c>
+      <c r="N234" t="n">
+        <v>1.39112</v>
+      </c>
+      <c r="O234" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="P234" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G235" t="n">
+        <v>1.00086206896552</v>
+      </c>
+      <c r="H235" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I235" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M235" t="n">
+        <v>1.2964</v>
+      </c>
+      <c r="N235" t="n">
+        <v>1.4816</v>
+      </c>
+      <c r="O235" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="P235" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G236" t="n">
+        <v>1.00086206896552</v>
+      </c>
+      <c r="H236" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I236" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M236" t="n">
+        <v>1.2964</v>
+      </c>
+      <c r="N236" t="n">
+        <v>1.4816</v>
+      </c>
+      <c r="O236" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="P236" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0.0221206896551724</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0.0716</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0.02764</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0.0612</v>
+      </c>
+      <c r="O237" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="P237" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T237" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Mangatainoka at u/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0.0221206896551724</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0.0716</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0.02764</v>
+      </c>
+      <c r="N238" t="n">
+        <v>0.0612</v>
+      </c>
+      <c r="O238" t="n">
+        <v>1840895</v>
+      </c>
+      <c r="P238" t="n">
+        <v>5519593</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MangatainokaatusPahiatuaSTP_caf0f41afe.xlsx
+++ b/state_results/Rivers/MangatainokaatusPahiatuaSTP_caf0f41afe.xlsx
@@ -570,10 +570,10 @@
         <v>1.9</v>
       </c>
       <c r="G2" t="n">
-        <v>2.0763590418162</v>
+        <v>2.09468642649817</v>
       </c>
       <c r="H2" t="n">
-        <v>6.58984837993457</v>
+        <v>7.19465207443951</v>
       </c>
       <c r="I2" t="n">
         <v>5.571</v>
@@ -2020,10 +2020,10 @@
         <v>2.05</v>
       </c>
       <c r="G20" t="n">
-        <v>2.23221801055374</v>
+        <v>2.24901811317888</v>
       </c>
       <c r="H20" t="n">
-        <v>6.58984837993457</v>
+        <v>7.19465207443951</v>
       </c>
       <c r="I20" t="n">
         <v>5.382</v>
@@ -3470,10 +3470,10 @@
         <v>2.3</v>
       </c>
       <c r="G38" t="n">
-        <v>2.40128412063243</v>
+        <v>2.44694521631635</v>
       </c>
       <c r="H38" t="n">
-        <v>6.58984837993457</v>
+        <v>7.19465207443951</v>
       </c>
       <c r="I38" t="n">
         <v>5.067</v>
@@ -3484,10 +3484,10 @@
         <v>2.7</v>
       </c>
       <c r="M38" t="n">
-        <v>3.1</v>
+        <v>3.1696</v>
       </c>
       <c r="N38" t="n">
-        <v>4.071</v>
+        <v>4.32744</v>
       </c>
       <c r="O38" t="n">
         <v>1840895</v>
@@ -4920,7 +4920,7 @@
         <v>2.675</v>
       </c>
       <c r="G56" t="n">
-        <v>2.50174439400377</v>
+        <v>2.53054669465231</v>
       </c>
       <c r="H56" t="n">
         <v>5.4</v>
@@ -4934,10 +4934,10 @@
         <v>2.89</v>
       </c>
       <c r="M56" t="n">
-        <v>3.505</v>
+        <v>3.754</v>
       </c>
       <c r="N56" t="n">
-        <v>4.492</v>
+        <v>4.49558</v>
       </c>
       <c r="O56" t="n">
         <v>1840895</v>
@@ -6447,13 +6447,13 @@
         <v>2.845</v>
       </c>
       <c r="G75" t="n">
-        <v>2.87163586343553</v>
+        <v>2.93638778832264</v>
       </c>
       <c r="H75" t="n">
-        <v>6.4</v>
+        <v>11.0194248800971</v>
       </c>
       <c r="I75" t="n">
-        <v>6.03793</v>
+        <v>5.37471</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -6461,10 +6461,10 @@
         <v>3</v>
       </c>
       <c r="M75" t="n">
-        <v>4.4864</v>
+        <v>4.40974</v>
       </c>
       <c r="N75" t="n">
-        <v>5.2196</v>
+        <v>5.19684</v>
       </c>
       <c r="O75" t="n">
         <v>1840895</v>
@@ -8128,13 +8128,13 @@
         <v>2.89</v>
       </c>
       <c r="G96" t="n">
-        <v>2.85366840511069</v>
+        <v>2.92122480920451</v>
       </c>
       <c r="H96" t="n">
-        <v>6.4</v>
+        <v>11.0194248800971</v>
       </c>
       <c r="I96" t="n">
-        <v>5.99806</v>
+        <v>5.36838</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -8142,10 +8142,10 @@
         <v>3.05</v>
       </c>
       <c r="M96" t="n">
-        <v>4.483</v>
+        <v>4.39217</v>
       </c>
       <c r="N96" t="n">
-        <v>5.202</v>
+        <v>5.18935</v>
       </c>
       <c r="O96" t="n">
         <v>1840895</v>
@@ -9792,7 +9792,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -9806,27 +9806,27 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2.91121</v>
+        <v>3.05</v>
       </c>
       <c r="G117" t="n">
-        <v>2.73009232470672</v>
+        <v>2.81659868556848</v>
       </c>
       <c r="H117" t="n">
-        <v>6.4</v>
+        <v>11.0194248800971</v>
       </c>
       <c r="I117" t="n">
-        <v>6.03793</v>
+        <v>5.37471</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
-        <v>3.2</v>
+        <v>3.33</v>
       </c>
       <c r="M117" t="n">
-        <v>4.4864</v>
+        <v>4.40974</v>
       </c>
       <c r="N117" t="n">
-        <v>5.2196</v>
+        <v>5.19684</v>
       </c>
       <c r="O117" t="n">
         <v>1840895</v>
@@ -11487,27 +11487,27 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G138" t="n">
-        <v>2.7421997052582</v>
+        <v>2.80894563188563</v>
       </c>
       <c r="H138" t="n">
-        <v>6.4</v>
+        <v>11.0194248800971</v>
       </c>
       <c r="I138" t="n">
-        <v>6.15754</v>
+        <v>5.39368</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
-        <v>3.36</v>
+        <v>3.36496</v>
       </c>
       <c r="M138" t="n">
-        <v>4.583</v>
+        <v>4.4966</v>
       </c>
       <c r="N138" t="n">
-        <v>5.2724</v>
+        <v>5.21929</v>
       </c>
       <c r="O138" t="n">
         <v>1840895</v>
@@ -13154,7 +13154,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -13168,27 +13168,27 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="G159" t="n">
-        <v>2.49488912088365</v>
+        <v>2.57405289432549</v>
       </c>
       <c r="H159" t="n">
-        <v>6.4</v>
+        <v>11.0194248800971</v>
       </c>
       <c r="I159" t="n">
-        <v>6.21217</v>
+        <v>5.6678</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
-        <v>3</v>
+        <v>3.36</v>
       </c>
       <c r="M159" t="n">
-        <v>4.3666</v>
+        <v>4.34697</v>
       </c>
       <c r="N159" t="n">
-        <v>4.94688</v>
+        <v>4.82841</v>
       </c>
       <c r="O159" t="n">
         <v>1840895</v>
@@ -14852,7 +14852,7 @@
         <v>1.7</v>
       </c>
       <c r="G180" t="n">
-        <v>1.89173902839514</v>
+        <v>1.92844963910235</v>
       </c>
       <c r="H180" t="n">
         <v>4.6</v>
@@ -14863,7 +14863,7 @@
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
-        <v>2.54461</v>
+        <v>3.02248</v>
       </c>
       <c r="M180" t="n">
         <v>3.6616</v>
